--- a/test-output/EngineeringCreateOutput.xlsx
+++ b/test-output/EngineeringCreateOutput.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{F5BF9494-17C3-4114-97C9-7182927C74FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5768C121-D813-4067-B996-3B27E1E5E773}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19845" windowHeight="8430" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21765" windowHeight="6075" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ContractorMaster_Create" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,13 @@
     <sheet name="StoreMaster_Create" sheetId="3" r:id="rId4"/>
     <sheet name="BOQ_Create" sheetId="4" r:id="rId5"/>
     <sheet name="Indent_Create" sheetId="5" r:id="rId6"/>
+    <sheet name="PO_Create" sheetId="7" r:id="rId7"/>
+    <sheet name="GRN_Create" sheetId="8" r:id="rId8"/>
+    <sheet name="Abstract_Create" sheetId="9" r:id="rId9"/>
+    <sheet name="Workorder_Create" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:R18"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="93">
   <si>
     <t>Ram 1205034849</t>
   </si>
@@ -103,6 +107,69 @@
     <t>StoreUpdation</t>
   </si>
   <si>
+    <t>Ram 2305093815</t>
+  </si>
+  <si>
+    <t>Dinesh 2305093830</t>
+  </si>
+  <si>
+    <t>preetham 2305093844</t>
+  </si>
+  <si>
+    <t>sathwik 2305093859</t>
+  </si>
+  <si>
+    <t>harish 2305093914</t>
+  </si>
+  <si>
+    <t>sridhar 2305093929</t>
+  </si>
+  <si>
+    <t>siva 2305093944</t>
+  </si>
+  <si>
+    <t>contractingclientcreate</t>
+  </si>
+  <si>
+    <t>BOQ74870</t>
+  </si>
+  <si>
+    <t>BOQ74870 Approved</t>
+  </si>
+  <si>
+    <t>BOQ46668</t>
+  </si>
+  <si>
+    <t>BOQ46668 Approved</t>
+  </si>
+  <si>
+    <t>BOQ05181</t>
+  </si>
+  <si>
+    <t>BOQ05181 Approved</t>
+  </si>
+  <si>
+    <t>BOQ15254</t>
+  </si>
+  <si>
+    <t>BOQ15254 Approved</t>
+  </si>
+  <si>
+    <t>BOQ63083</t>
+  </si>
+  <si>
+    <t>BOQ63083 Approved</t>
+  </si>
+  <si>
+    <t>BOQCreation</t>
+  </si>
+  <si>
+    <t>BOQ Updation</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
     <t>WOSummary</t>
   </si>
   <si>
@@ -115,73 +182,133 @@
     <t>materialMaster</t>
   </si>
   <si>
-    <t>IND/BTSP/THD/40/80</t>
+    <t>IND/BTSP/THD/40/129</t>
   </si>
   <si>
     <t>Indent is Created</t>
   </si>
   <si>
-    <t>IND/BTSP/THD/40/81</t>
-  </si>
-  <si>
-    <t>BOQ55227</t>
-  </si>
-  <si>
-    <t>BOQ55227 Approved</t>
-  </si>
-  <si>
-    <t>BOQ50248</t>
-  </si>
-  <si>
-    <t>BOQ50248 Approved</t>
-  </si>
-  <si>
-    <t>BOQ88151</t>
-  </si>
-  <si>
-    <t>BOQ88151 Approved</t>
-  </si>
-  <si>
-    <t>BOQ42824</t>
-  </si>
-  <si>
-    <t>BOQ42824 Approved</t>
-  </si>
-  <si>
-    <t>BOQ15552</t>
-  </si>
-  <si>
-    <t>BOQ15552 Approved</t>
-  </si>
-  <si>
-    <t>BOQCreation</t>
-  </si>
-  <si>
-    <t>BOQ Updation</t>
-  </si>
-  <si>
-    <t>Ram 2305093815</t>
-  </si>
-  <si>
-    <t>Dinesh 2305093830</t>
-  </si>
-  <si>
-    <t>preetham 2305093844</t>
-  </si>
-  <si>
-    <t>sathwik 2305093859</t>
-  </si>
-  <si>
-    <t>harish 2305093914</t>
-  </si>
-  <si>
-    <t>sridhar 2305093929</t>
-  </si>
-  <si>
-    <t>siva 2305093944</t>
-  </si>
-  <si>
-    <t>contractingclientcreate</t>
+    <t>IND/BTSP/THD/40/130</t>
+  </si>
+  <si>
+    <t>Material Not Added</t>
+  </si>
+  <si>
+    <t>IND/BTSP/THD/40/131</t>
+  </si>
+  <si>
+    <t>Indent is not Created</t>
+  </si>
+  <si>
+    <t>IND/BTSP/THD/40/132</t>
+  </si>
+  <si>
+    <t>IND/BTSP/THD/40/133</t>
+  </si>
+  <si>
+    <t>IND/BTSP/THD/40/134</t>
+  </si>
+  <si>
+    <t>IND/BTSP/THD/40/135</t>
+  </si>
+  <si>
+    <t>IND/BTSP/THD/40/136</t>
+  </si>
+  <si>
+    <t>IND/BTSP/THD/40/137</t>
+  </si>
+  <si>
+    <t>IND/BTSP/THD/40/138</t>
+  </si>
+  <si>
+    <t>createIndent</t>
+  </si>
+  <si>
+    <t>GRN</t>
+  </si>
+  <si>
+    <t>Not Created Exception</t>
+  </si>
+  <si>
+    <t>Purchase Order</t>
+  </si>
+  <si>
+    <t>PurchaseorderCreate</t>
+  </si>
+  <si>
+    <t>PO MOdified &amp; Updated</t>
+  </si>
+  <si>
+    <t>GRN Created</t>
+  </si>
+  <si>
+    <t>Modified &amp; Updated</t>
+  </si>
+  <si>
+    <t>GRN_Creation</t>
+  </si>
+  <si>
+    <t>GRN EDIT</t>
+  </si>
+  <si>
+    <t>GRN/7521/29</t>
+  </si>
+  <si>
+    <t>GRN/7521/30</t>
+  </si>
+  <si>
+    <t>GRN/7521/31</t>
+  </si>
+  <si>
+    <t>GRN/7521/32</t>
+  </si>
+  <si>
+    <t>GRN/7521/33</t>
+  </si>
+  <si>
+    <t>WO: WO/BTSP/RPTGSA3/119</t>
+  </si>
+  <si>
+    <t>WO/BTSP/RPTGSA3/119</t>
+  </si>
+  <si>
+    <t>WO: WO/BTSP/RPTGSA3/120</t>
+  </si>
+  <si>
+    <t>WO/BTSP/RPTGSA3/120</t>
+  </si>
+  <si>
+    <t>Status Changed</t>
+  </si>
+  <si>
+    <t>WO: WO/BTSP/RPTGSA3/121</t>
+  </si>
+  <si>
+    <t>WO/BTSP/RPTGSA3/121</t>
+  </si>
+  <si>
+    <t>workordercreate</t>
+  </si>
+  <si>
+    <t>WO Edit</t>
+  </si>
+  <si>
+    <t>WO: Abs/BTSP/RPTGSA3/81</t>
+  </si>
+  <si>
+    <t>WO: Abs/BTSP/RPTGSA3/82</t>
+  </si>
+  <si>
+    <t>WO: Abs/BTSP/RPTGSA3/83</t>
+  </si>
+  <si>
+    <t>WO: Abs/BTSP/RPTGSA3/84</t>
+  </si>
+  <si>
+    <t>abstractcreate</t>
+  </si>
+  <si>
+    <t>Abstract Edit</t>
   </si>
 </sst>
 </file>
@@ -637,6 +764,113 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CED3D6-0495-4820-8EB2-AEF72233FB39}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="26.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="255.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EDFF99-3924-4C80-8B4A-8A14DF20C7BD}">
   <dimension ref="A1:B15"/>
@@ -780,7 +1014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EB3509C-7EB2-4756-8CF7-42068B5602D0}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -790,121 +1024,121 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -920,7 +1154,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,7 +1237,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,7 +1248,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1022,7 +1256,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
@@ -1030,7 +1264,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -1038,7 +1272,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -1046,7 +1280,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
@@ -1054,7 +1288,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -1062,7 +1296,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -1070,7 +1304,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -1078,7 +1312,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -1086,7 +1320,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -1094,7 +1328,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
@@ -1102,7 +1336,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -1110,7 +1344,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -1118,7 +1352,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
@@ -1126,7 +1360,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -1134,7 +1368,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
@@ -1142,7 +1376,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
@@ -1155,88 +1389,673 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18964493-1D84-425E-968A-A0DF13A38375}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3816463E-9A83-4106-B069-36AC36488715}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A90C063-D46C-47E8-A201-C05C05909C8B}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D411E897-E773-4C26-978A-3019CE0D4D2C}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="A1:B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="93.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/test-output/EngineeringCreateOutput.xlsx
+++ b/test-output/EngineeringCreateOutput.xlsx
@@ -1,28 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5768C121-D813-4067-B996-3B27E1E5E773}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350C0645-7A48-42C7-B4B7-2418C0136510}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21765" windowHeight="6075" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22455" windowHeight="7950" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ContractorMaster_Create" sheetId="1" r:id="rId1"/>
     <sheet name="ConsultantMaster_Create" sheetId="2" r:id="rId2"/>
     <sheet name="ContractingClientMaster_Create" sheetId="6" r:id="rId3"/>
-    <sheet name="StoreMaster_Create" sheetId="3" r:id="rId4"/>
-    <sheet name="BOQ_Create" sheetId="4" r:id="rId5"/>
-    <sheet name="Indent_Create" sheetId="5" r:id="rId6"/>
-    <sheet name="PO_Create" sheetId="7" r:id="rId7"/>
-    <sheet name="GRN_Create" sheetId="8" r:id="rId8"/>
-    <sheet name="Abstract_Create" sheetId="9" r:id="rId9"/>
-    <sheet name="Workorder_Create" sheetId="10" r:id="rId10"/>
+    <sheet name="StoreMaster_Create1" sheetId="3" r:id="rId4"/>
+    <sheet name="StoreMaster_Create" sheetId="16" r:id="rId5"/>
+    <sheet name="BOQ_Create1" sheetId="4" r:id="rId6"/>
+    <sheet name="BOQ_Create" sheetId="17" r:id="rId7"/>
+    <sheet name="Indent_Create" sheetId="5" r:id="rId8"/>
+    <sheet name="PO_Create" sheetId="7" r:id="rId9"/>
+    <sheet name="GRN_Create" sheetId="8" r:id="rId10"/>
+    <sheet name="Abstract_Create" sheetId="9" r:id="rId11"/>
+    <sheet name="Workorder_Create" sheetId="10" r:id="rId12"/>
+    <sheet name="WorkorderAdvance_Create" sheetId="11" r:id="rId13"/>
+    <sheet name="WorkOrderCert_Create" sheetId="12" r:id="rId14"/>
+    <sheet name="Engg_BOQ_WO_Abstract_Create" sheetId="13" r:id="rId15"/>
+    <sheet name="Workorder_DebitNote_Create" sheetId="14" r:id="rId16"/>
+    <sheet name="Workorder_DNReceipt_Create" sheetId="15" r:id="rId17"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:R18"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -30,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="138">
   <si>
     <t>Ram 1205034849</t>
   </si>
@@ -309,14 +315,148 @@
   </si>
   <si>
     <t>Abstract Edit</t>
+  </si>
+  <si>
+    <t>workorderadvance</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>Adv Created::1481</t>
+  </si>
+  <si>
+    <t>WO Advance Payment for 1481</t>
+  </si>
+  <si>
+    <t>Adv Created::1482</t>
+  </si>
+  <si>
+    <t>WO Advance Payment for 1482</t>
+  </si>
+  <si>
+    <t>Adv Created::1483</t>
+  </si>
+  <si>
+    <t>BOQ is Created</t>
+  </si>
+  <si>
+    <t>BOQ ID::86481</t>
+  </si>
+  <si>
+    <t>WO No: WO/BTSP/RPTGSA3/183</t>
+  </si>
+  <si>
+    <t>Work order is Created</t>
+  </si>
+  <si>
+    <t>Abstract No:Abs/BTSP/RPTGSA3/123</t>
+  </si>
+  <si>
+    <t>Created and approved</t>
+  </si>
+  <si>
+    <t>WO DebitNote Receipt</t>
+  </si>
+  <si>
+    <t>Debit Note Created:: 28</t>
+  </si>
+  <si>
+    <t>Modified and Updated - Receipt:: 28</t>
+  </si>
+  <si>
+    <t>Receipt:: 28Status---Processed</t>
+  </si>
+  <si>
+    <t>Debit Note Created:: 29</t>
+  </si>
+  <si>
+    <t>Modified and Updated - Receipt:: 29</t>
+  </si>
+  <si>
+    <t>Receipt:: 29Status---Processed</t>
+  </si>
+  <si>
+    <t>Debit Note Created:: 30</t>
+  </si>
+  <si>
+    <t>Modified and Updated - Receipt:: 30</t>
+  </si>
+  <si>
+    <t>Receipt:: 30Status---Processed</t>
+  </si>
+  <si>
+    <t>WODebitNoteReceiptCreate</t>
+  </si>
+  <si>
+    <t>WO DebitNote Receipt Updation</t>
+  </si>
+  <si>
+    <t>WO Debit Note</t>
+  </si>
+  <si>
+    <t>Debit Note Created:: 237</t>
+  </si>
+  <si>
+    <t>Modified and Updated - DN:: 237</t>
+  </si>
+  <si>
+    <t>Debit Note Created:: 238</t>
+  </si>
+  <si>
+    <t>Modified and Updated - DN:: 238</t>
+  </si>
+  <si>
+    <t>Debit Note Created:: 239</t>
+  </si>
+  <si>
+    <t>Modified and Updated - DN:: 239</t>
+  </si>
+  <si>
+    <t>WODebitNoteCreate</t>
+  </si>
+  <si>
+    <t>WO DebitNote Updation</t>
+  </si>
+  <si>
+    <t>workordercert</t>
+  </si>
+  <si>
+    <t>Cert Created::14483</t>
+  </si>
+  <si>
+    <t>WO cert Payment for 14483</t>
+  </si>
+  <si>
+    <t>Cert Created::14484</t>
+  </si>
+  <si>
+    <t>WO cert Payment for 14484</t>
+  </si>
+  <si>
+    <t>Cert Created::14485</t>
+  </si>
+  <si>
+    <t>WO cert Payment for 14485</t>
+  </si>
+  <si>
+    <t>WO Cert Create</t>
+  </si>
+  <si>
+    <t>WO Cert Updation</t>
+  </si>
+  <si>
+    <t>BOQ74763</t>
+  </si>
+  <si>
+    <t>BOQ74763 Approved</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -635,8 +775,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -765,6 +905,220 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A90C063-D46C-47E8-A201-C05C05909C8B}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D411E897-E773-4C26-978A-3019CE0D4D2C}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="93.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CED3D6-0495-4820-8EB2-AEF72233FB39}">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -774,8 +1128,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="26.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="255.7109375" collapsed="true"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="255.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -861,6 +1215,425 @@
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>86</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED545D68-81A0-4C6C-BC24-4B451FBCC248}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F87CDE-5FAE-4667-82E2-8AB806A3F7D1}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F246A2-23AD-4D59-BC6A-6C9BCB9E6672}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{519F48B2-0061-4264-AAD0-01931E2DAF61}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463339BC-2E85-4841-B7AA-110650439527}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>117</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -881,8 +1654,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1020,8 +1793,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1154,13 +1927,13 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1233,17 +2006,31 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E436A85-A301-4328-83B2-BED31D264FDA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA465B3-0F33-4278-ABA1-CE83AA508FAF}">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1387,7 +2174,65 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2111B807-ACB9-4EB6-BAAA-CC2D286E0565}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18964493-1D84-425E-968A-A0DF13A38375}">
   <dimension ref="A1:B41"/>
   <sheetViews>
@@ -1397,8 +2242,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1734,7 +2579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3816463E-9A83-4106-B069-36AC36488715}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -1744,8 +2589,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1847,218 +2692,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A90C063-D46C-47E8-A201-C05C05909C8B}">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D411E897-E773-4C26-978A-3019CE0D4D2C}">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="A1:B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="93.28515625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>